--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -62,6 +62,36 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -74,9 +104,6 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -92,7 +119,46 @@
     <t>57.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:18 AM</t>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>Friday, 19 September, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,53 +871,218 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
       </c>
-      <c t="s" r="Q9" s="12">
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>142.69</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>33</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>34</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>37</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>38</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>21</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>41</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>45</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>33</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>46</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>357.44999999999999</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>49</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>50</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>51</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +1106,35 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:27 AM</t>
+    <t>Friday, 19 September, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -143,12 +155,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ايزي سويت 3 قطع</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -158,7 +179,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:40 AM</t>
+    <t>Friday, 19 September, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1018,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1007,14 +1028,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1030,59 +1051,125 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>47</v>
       </c>
-      <c t="s" r="Q14" s="12">
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>357.44999999999999</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>49</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>33</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>50</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>51</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>41</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>33</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>53</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>409.44999999999999</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>56</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>57</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>58</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1131,10 +1218,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:41 AM</t>
+    <t>Friday, 19 September, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -131,12 +131,21 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>OSSOPAN 800MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -167,6 +176,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -179,7 +191,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:47 AM</t>
+    <t>Friday, 19 September, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1063,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1068,7 +1080,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1077,31 +1089,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1110,14 +1122,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1134,42 +1146,108 @@
         <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>409.44999999999999</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>41</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>33</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>38</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>56</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>41</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>33</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>57</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>651.45000000000005</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1228,10 +1306,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ATOR 20MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -104,6 +113,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -152,6 +170,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -179,6 +206,27 @@
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -191,7 +239,16 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 12:03 PM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Friday, 19 September, 2025 1:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +939,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,14 +948,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -908,14 +965,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -924,14 +981,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +998,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -957,31 +1014,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +1047,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,14 +1064,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,31 +1080,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,14 +1113,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1073,14 +1130,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,14 +1146,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1113,7 +1170,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,31 +1179,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,31 +1212,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1195,13 +1252,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1216,38 +1273,236 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>651.45000000000005</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>60</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>61</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>39</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>39</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>44</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>47</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>39</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>69</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>39</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>47</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>39</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>39</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>845.495</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1571,40 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>32.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -1219,7 +1228,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1236,7 +1245,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1252,7 +1261,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1269,7 +1278,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,31 +1287,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1311,14 +1320,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,11 +1337,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1344,7 +1353,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1361,11 +1370,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1384,7 +1393,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,11 +1403,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1410,14 +1419,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1434,7 +1443,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,7 +1452,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1460,49 +1469,82 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
       </c>
-      <c t="s" r="Q24" s="12">
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>47</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>39</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>80</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>845.495</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>79</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>80</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>81</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>866.495</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>82</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>83</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>84</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1643,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -248,6 +248,12 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -257,7 +263,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 1:06 PM</t>
+    <t>Friday, 19 September, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,7 +1498,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1502,49 +1508,82 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>866.495</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>39</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>82</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>916.495</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
         <v>84</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1648,10 +1687,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -263,7 +272,19 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 3:30 PM</t>
+    <t>لزق بثور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معطر جو FRIDA </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Friday, 19 September, 2025 3:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1366,7 +1387,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,11 +1397,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1392,7 +1413,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1409,11 +1430,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1432,7 +1453,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,11 +1463,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1458,14 +1479,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1482,7 +1503,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,14 +1512,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1541,49 +1562,148 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>47</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>39</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>85</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>39</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>68</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>83</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>916.495</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>84</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>85</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>86</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>39</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1151.4949999999999</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1812,25 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -284,7 +296,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 3:31 PM</t>
+    <t>Friday, 19 September, 2025 3:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1041,7 +1053,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1050,14 +1062,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1067,14 +1079,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1090,7 +1102,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1100,14 +1112,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1116,31 +1128,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1149,20 +1161,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1222,7 +1234,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1232,11 +1244,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1248,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1265,11 +1277,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1281,14 +1293,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1298,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1314,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1354,24 +1366,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1387,21 +1399,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1413,28 +1425,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1446,28 +1458,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1479,20 +1491,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1519,24 +1531,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1552,24 +1564,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,28 +1590,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1611,28 +1623,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1644,66 +1656,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1151.4949999999999</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>91</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>92</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>87</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>43</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>93</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1184.4949999999999</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>96</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>97</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1827,10 +1872,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>بادي لوشن كير اند مور</t>
   </si>
   <si>
@@ -284,9 +293,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>لزق بثور</t>
-  </si>
-  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -296,7 +302,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 3:38 PM</t>
+    <t>Friday, 19 September, 2025 4:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1438,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1465,7 +1471,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,11 +1481,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1491,7 +1497,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1508,11 +1514,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1531,7 +1537,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1541,11 +1547,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1557,14 +1563,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1581,7 +1587,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1590,14 +1596,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1607,14 +1613,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1623,14 +1629,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1640,11 +1646,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1663,7 +1669,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1673,11 +1679,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1706,11 +1712,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1718,13 +1724,13 @@
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="P31" s="13">
-        <v>1184.4949999999999</v>
+        <v>1274.4949999999999</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c t="s" r="A32" s="14">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1732,13 +1738,13 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c t="s" r="G32" s="15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="16"/>
       <c t="s" r="K32" s="17">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -302,7 +314,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 4:11 PM</t>
+    <t>Friday, 19 September, 2025 4:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,18 +1192,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1200,20 +1212,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1273,7 +1285,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1295,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1299,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,11 +1328,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1332,14 +1344,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,14 +1361,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1405,24 +1417,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1438,21 +1450,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1464,28 +1476,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1497,28 +1509,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1530,28 +1542,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1563,20 +1575,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1603,24 +1615,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1636,24 +1648,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,28 +1674,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1695,66 +1707,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1274.4949999999999</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>97</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>98</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>94</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>47</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1278.335</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>101</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>102</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>103</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +1928,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADRENOCORTINE 1MG/ML I.M. AMP.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -65,15 +80,24 @@
     <t>ATOR 20MG 10 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>79.00</t>
   </si>
   <si>
     <t>79.0000</t>
   </si>
   <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -176,9 +200,6 @@
     <t>OSSOPAN 800MG 20 F.C.TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>192.00</t>
   </si>
   <si>
@@ -284,18 +305,18 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>شمع حريمي</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -314,7 +335,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 4:36 PM</t>
+    <t>Friday, 19 September, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1005,7 +1026,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1014,14 +1035,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1038,7 +1059,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1071,7 +1092,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1104,7 +1125,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1170,7 +1191,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1196,11 +1217,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1212,31 +1233,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1245,14 +1266,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1262,14 +1283,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1278,20 +1299,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1302,7 +1323,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1318,7 +1339,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1328,14 +1349,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1344,14 +1365,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1361,14 +1382,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1377,7 +1398,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1394,11 +1415,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1410,14 +1431,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,14 +1448,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1450,24 +1471,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,31 +1497,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1516,24 +1537,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1542,31 +1563,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1575,31 +1596,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1608,31 +1629,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1648,13 +1669,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1665,7 +1686,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1674,31 +1695,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1707,31 +1728,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1740,66 +1761,165 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1278.335</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>99</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>55</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>60</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>102</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>55</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>103</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>99</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>55</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1511.335</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>109</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>110</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1933,10 +2053,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 5:27 PM</t>
+    <t>Friday, 19 September, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>OSSOPAN 800MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -314,6 +323,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -335,7 +353,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 5:28 PM</t>
+    <t>Friday, 19 September, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1438,7 +1456,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1471,7 +1489,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1488,7 +1506,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1504,7 +1522,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1521,7 +1539,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1530,31 +1548,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1563,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1603,7 +1621,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1636,7 +1654,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1646,11 +1664,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1662,7 +1680,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1679,11 +1697,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1702,7 +1720,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1712,11 +1730,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1728,14 +1746,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1752,7 +1770,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,7 +1779,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1778,14 +1796,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1811,11 +1829,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1827,7 +1845,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1844,11 +1862,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1877,49 +1895,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1511.335</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>108</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>12</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>55</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>109</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>111</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>102</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>55</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>112</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1941.335</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>115</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>116</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2068,10 +2152,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -344,6 +344,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -353,7 +359,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 5:59 PM</t>
+    <t>Friday, 19 September, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1951,7 +1957,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1961,49 +1967,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>113</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1941.335</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>102</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>55</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>114</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1956.335</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>116</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>117</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>118</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2201,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:01 PM</t>
+    <t>Friday, 19 September, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>79.0000</t>
+  </si>
+  <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
@@ -1099,7 +1108,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1109,14 +1118,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1125,14 +1134,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1142,14 +1151,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1158,14 +1167,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1175,11 +1184,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1191,14 +1200,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1208,14 +1217,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1224,14 +1233,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1241,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1257,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1281,7 +1290,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1297,7 +1306,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1307,11 +1316,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1323,31 +1332,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1356,28 +1365,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1389,14 +1398,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1495,7 +1504,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1528,7 +1537,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1545,7 +1554,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1561,7 +1570,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1587,31 +1596,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1620,20 +1629,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1660,13 +1669,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1693,21 +1702,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1719,7 +1728,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1732,15 +1741,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1759,21 +1768,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1785,20 +1794,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1809,7 +1818,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1818,7 +1827,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1831,18 +1840,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,7 +1860,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1864,15 +1873,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1891,21 +1900,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1917,28 +1926,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1957,21 +1966,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1983,66 +1992,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1956.335</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>116</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>105</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>58</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>117</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1996.335</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>119</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>120</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>121</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2206,10 +2248,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:02 PM</t>
+    <t>Friday, 19 September, 2025 6:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -266,91 +266,106 @@
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>بادي سبلاش ايفا</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
   </si>
   <si>
     <t>مبرد قدم</t>
@@ -368,7 +383,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:03 PM</t>
+    <t>Friday, 19 September, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1650,10 +1665,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1662,7 +1677,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1679,11 +1694,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1695,7 +1710,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1712,11 +1727,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1728,7 +1743,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1761,7 +1776,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1778,11 +1793,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1794,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1811,11 +1826,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1827,7 +1842,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1844,14 +1859,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,7 +1875,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1877,11 +1892,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1893,7 +1908,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1959,14 +1974,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1976,11 +1991,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1992,14 +2007,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2009,11 +2024,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2053,38 +2068,104 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1996.335</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>119</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>120</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>58</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>113</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>121</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>103</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>58</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>122</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2126.335</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>124</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>125</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>126</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2253,10 +2334,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:08 PM</t>
+    <t>Friday, 19 September, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -167,6 +167,21 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -194,6 +209,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -215,6 +242,18 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>OSSOPAN 800MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -359,13 +398,10 @@
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
+    <t>70.0000</t>
   </si>
   <si>
     <t>مبرد قدم</t>
@@ -383,7 +419,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:11 PM</t>
+    <t>Friday, 19 September, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1371,7 +1407,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1380,20 +1416,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1404,7 +1440,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1426,15 +1462,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1446,14 +1482,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1463,14 +1499,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1479,14 +1515,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1496,11 +1532,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1512,7 +1548,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1529,11 +1565,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1545,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1562,14 +1598,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1578,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,14 +1631,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1611,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1644,31 +1680,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1677,31 +1713,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1710,31 +1746,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,31 +1779,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1776,28 +1812,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1809,28 +1845,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1842,7 +1878,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1855,18 +1891,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,7 +1911,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1888,15 +1924,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1908,28 +1944,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1941,31 +1977,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,28 +2010,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2007,7 +2043,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2020,15 +2056,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2040,7 +2076,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2053,15 +2089,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2073,28 +2109,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2106,66 +2142,165 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2126.335</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>124</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>125</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>128</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>98</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>63</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>129</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>131</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>132</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>63</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>126</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>116</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>63</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>134</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2215.4549999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>136</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>137</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>138</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2479,25 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -290,6 +299,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -419,7 +437,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:15 PM</t>
+    <t>Friday, 19 September, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1687,7 +1705,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1704,7 +1722,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1720,7 +1738,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1737,7 +1755,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1753,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1770,7 +1788,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1779,31 +1797,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1812,7 +1830,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1825,18 +1843,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1852,7 +1870,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1880,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1885,7 +1903,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,11 +1913,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,11 +1946,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,11 +1979,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2001,7 +2019,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,14 +2028,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,11 +2045,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2043,7 +2061,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,11 +2111,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2159,11 +2177,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2182,7 +2200,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2199,7 +2217,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2215,7 +2233,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2258,49 +2276,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2215.4549999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>136</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>137</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>138</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>63</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>132</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>139</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>122</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>63</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>140</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2460.4549999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>142</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>143</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>144</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2494,10 +2578,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>75.0000</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم 2*1 125 مل</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2233,7 +2236,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2259,14 +2262,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2276,14 +2279,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2292,14 +2295,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2309,14 +2312,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,14 +2328,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2342,49 +2345,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>122</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>63</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>141</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2460.4549999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2500.4549999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>143</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
         <v>144</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>145</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2588,10 +2624,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -95,12 +95,21 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>740.00</t>
   </si>
   <si>
@@ -425,6 +434,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>ماء اكسجين 20</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -440,7 +458,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:17 PM</t>
+    <t>Friday, 19 September, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1246,7 +1264,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1256,14 +1274,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1272,14 +1290,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1289,11 +1307,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1305,14 +1323,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1322,14 +1340,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,14 +1356,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1355,14 +1373,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1371,14 +1389,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1395,7 +1413,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1411,7 +1429,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1421,14 +1439,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1437,14 +1455,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1470,31 +1488,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,31 +1521,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1536,14 +1554,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,14 +1571,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,14 +1587,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1609,7 +1627,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,14 +1637,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1653,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1659,7 +1677,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1708,7 +1726,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1725,7 +1743,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1741,7 +1759,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1758,7 +1776,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1774,7 +1792,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1791,7 +1809,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1807,7 +1825,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1824,7 +1842,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1840,7 +1858,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1857,7 +1875,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,31 +1884,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1906,24 +1924,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1939,13 +1957,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1972,21 +1990,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1998,7 +2016,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2011,15 +2029,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2038,13 +2056,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2071,13 +2089,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2088,7 +2106,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,7 +2115,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2110,18 +2128,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,7 +2148,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2143,15 +2161,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2170,21 +2188,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2196,28 +2214,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2236,21 +2254,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2262,28 +2280,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2302,13 +2320,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2319,7 +2337,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2335,24 +2353,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2361,66 +2379,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2500.4549999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>143</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>144</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
         <v>145</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>66</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>136</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>146</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>125</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>66</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>147</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2553.4549999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>149</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>150</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>151</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2629,10 +2713,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -350,12 +359,6 @@
     <t>بادي لوشن كير اند مور</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:22 PM</t>
+    <t>Friday, 19 September, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,21 +1531,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1554,31 +1557,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1587,14 +1590,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,14 +1607,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1620,14 +1623,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1660,7 +1663,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1670,14 +1673,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1686,14 +1689,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1710,7 +1713,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1759,7 +1762,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1776,7 +1779,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1792,7 +1795,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1809,7 +1812,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1825,7 +1828,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1842,7 +1845,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1858,7 +1861,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1875,7 +1878,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1891,7 +1894,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1908,7 +1911,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1917,31 +1920,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1957,24 +1960,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1990,13 +1993,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2023,21 +2026,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2062,15 +2065,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2082,28 +2085,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2115,31 +2118,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,7 +2151,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2161,18 +2164,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2194,15 +2197,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2214,28 +2217,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2254,21 +2257,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2280,28 +2283,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2320,21 +2323,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2346,31 +2349,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,31 +2382,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,28 +2415,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2445,66 +2448,99 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>126</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>69</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>148</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2553.4549999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2638.4549999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>150</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
         <v>151</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>152</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2723,10 +2759,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -194,13 +194,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:5</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>15.8400</t>
   </si>
   <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
@@ -359,6 +359,18 @@
     <t>بادي لوشن كير اند مور</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -461,7 +473,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 6:34 PM</t>
+    <t>Friday, 19 September, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1515,7 +1527,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2059,7 +2071,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,11 +2081,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2085,7 +2097,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2102,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2135,11 +2147,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2201,14 +2213,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,7 +2229,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2234,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2250,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2267,11 +2279,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2300,11 +2312,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2316,7 +2328,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2333,11 +2345,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2366,11 +2378,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2465,11 +2477,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,49 +2510,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2638.4549999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>150</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>151</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>130</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>69</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>152</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2680.4549999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>154</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>155</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>156</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2764,10 +2809,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -203,6 +212,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -212,15 +233,21 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -299,6 +326,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SORAL 20MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -365,12 +401,6 @@
     <t>33:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -473,7 +503,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 7:31 PM</t>
+    <t>Friday, 19 September, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1378,7 +1408,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1388,14 +1418,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1404,14 +1434,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1421,14 +1451,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1437,14 +1467,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1461,7 +1491,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1477,7 +1507,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1487,14 +1517,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1503,14 +1533,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1520,14 +1550,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1536,14 +1566,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1560,7 +1590,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1576,24 +1606,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1602,14 +1632,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1619,14 +1649,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1635,28 +1665,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1668,28 +1698,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1701,14 +1731,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,11 +1748,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1734,14 +1764,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,11 +1781,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1767,7 +1797,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1784,11 +1814,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1800,14 +1830,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1824,7 +1854,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1840,7 +1870,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1873,7 +1903,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1890,7 +1920,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1906,7 +1936,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1923,7 +1953,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1956,7 +1986,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1965,31 +1995,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1998,31 +2028,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2031,28 +2061,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2064,20 +2094,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2088,7 +2118,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2097,31 +2127,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,28 +2160,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2163,28 +2193,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2196,31 +2226,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,7 +2259,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2242,15 +2272,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2262,7 +2292,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2275,15 +2305,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2295,28 +2325,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2328,31 +2358,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,28 +2391,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2394,7 +2424,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2407,15 +2437,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2427,31 +2457,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2467,13 +2497,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2500,21 +2530,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2526,66 +2556,198 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>153</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2680.4549999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>122</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>68</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>154</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c t="s" r="Q51" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>156</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>78</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>68</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>157</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>159</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>160</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>68</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>151</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>140</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>68</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2942.4250000000002</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>164</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>165</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>166</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2814,10 +2976,30 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -488,6 +488,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -503,7 +509,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 7:35 PM</t>
+    <t>Friday, 19 September, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2695,7 +2701,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2705,49 +2711,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>163</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2942.4250000000002</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>140</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>68</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>164</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2957.4250000000002</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
         <v>166</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>167</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>168</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2996,10 +3035,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -308,6 +308,18 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -509,7 +521,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 7:40 PM</t>
+    <t>Friday, 19 September, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1909,7 +1921,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,7 +1980,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,11 +2030,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2129,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2140,24 +2152,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,14 +2195,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2261,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2298,7 +2310,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2315,11 +2327,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,11 +2360,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,7 +2442,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2447,11 +2459,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,11 +2492,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,11 +2525,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2529,7 +2541,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2546,11 +2558,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,11 +2591,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,14 +2624,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,11 +2690,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,11 +2723,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,49 +2756,82 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2957.4250000000002</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>166</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>167</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>144</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>68</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>168</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2980.4250000000002</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>170</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>171</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>172</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3040,10 +3085,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -224,6 +236,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -299,6 +320,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>OSSOPAN 800MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -521,7 +551,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 7:58 PM</t>
+    <t>Friday, 19 September, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1456,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1436,14 +1466,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1452,14 +1482,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1476,7 +1506,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1485,14 +1515,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1502,14 +1532,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1525,7 +1555,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1535,14 +1565,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1551,14 +1581,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1575,7 +1605,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1584,14 +1614,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1601,14 +1631,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1624,13 +1654,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1641,7 +1671,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,24 +1687,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1683,28 +1713,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1716,20 +1746,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1756,24 +1786,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1782,28 +1812,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1839,7 +1869,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1872,7 +1902,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1987,7 +2017,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2004,7 +2034,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2020,7 +2050,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2030,14 +2060,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2046,14 +2076,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,11 +2093,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2079,14 +2109,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2142,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,11 +2159,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2145,14 +2175,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,14 +2192,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2185,24 +2215,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,13 +2248,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2251,24 +2281,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2277,31 +2307,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,28 +2340,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2343,28 +2373,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2376,28 +2406,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2409,7 +2439,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2422,18 +2452,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2455,15 +2485,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2475,28 +2505,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2508,31 +2538,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,28 +2571,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2574,28 +2604,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2607,28 +2637,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2640,31 +2670,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,28 +2703,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2706,28 +2736,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2739,31 +2769,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,66 +2802,165 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2980.4250000000002</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>170</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>171</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>172</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>174</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>72</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>165</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>72</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>165</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>177</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>154</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>72</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>178</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3130.4250000000002</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>180</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>181</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>182</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3090,10 +3219,25 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -224,6 +224,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -551,7 +554,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:00 PM</t>
+    <t>Friday, 19 September, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1687,21 +1690,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1713,31 +1716,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1746,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,11 +1766,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1779,7 +1782,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1792,15 +1795,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1812,28 +1815,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1845,31 +1848,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1878,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1895,14 +1898,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,11 +1931,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1944,14 +1947,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,14 +1964,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1977,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,14 +1997,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2010,7 +2013,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2027,11 +2030,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,14 +2063,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2076,14 +2079,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,14 +2096,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2109,14 +2112,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2129,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2142,7 +2145,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2159,14 +2162,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,11 +2195,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,14 +2228,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2241,14 +2244,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,14 +2261,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2294,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2307,31 +2310,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,31 +2343,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,28 +2376,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2413,21 +2416,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2439,28 +2442,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2485,15 +2488,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2505,28 +2508,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2538,31 +2541,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,7 +2574,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2584,18 +2587,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2617,15 +2620,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2637,28 +2640,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2677,21 +2680,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2703,28 +2706,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2743,21 +2746,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2769,31 +2772,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,31 +2805,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,28 +2838,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2868,28 +2871,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2901,66 +2904,99 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>155</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>73</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>179</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3130.4250000000002</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3157.4250000000002</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>181</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>182</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>183</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3234,10 +3270,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -290,6 +299,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -362,6 +383,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -407,6 +434,18 @@
     <t>234.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -416,9 +455,6 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
@@ -554,7 +590,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:03 PM</t>
+    <t>Friday, 19 September, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,13 +1858,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1855,7 +1891,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1865,11 +1901,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1881,31 +1917,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1914,14 +1950,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1931,14 +1967,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1947,14 +1983,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1971,7 +2007,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2004,7 +2040,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2053,7 +2089,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2063,14 +2099,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2079,14 +2115,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2103,7 +2139,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2152,7 +2188,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2162,14 +2198,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2178,14 +2214,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2195,11 +2231,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2211,14 +2247,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2228,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2251,7 +2287,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2268,7 +2304,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2284,7 +2320,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2317,7 +2353,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2334,7 +2370,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2343,31 +2379,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,28 +2412,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2409,28 +2445,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2442,31 +2478,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2475,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2508,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2525,11 +2561,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2558,11 +2594,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,7 +2643,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2624,11 +2660,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2640,7 +2676,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2657,11 +2693,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2673,14 +2709,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2690,11 +2726,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2756,11 +2792,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2772,7 +2808,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2789,11 +2825,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,14 +2874,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2855,11 +2891,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2888,11 +2924,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2904,14 +2940,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2921,11 +2957,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2937,14 +2973,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2954,49 +2990,181 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3157.4250000000002</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>181</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>182</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>183</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>89</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>73</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>184</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>186</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>187</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>73</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>178</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>189</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>73</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>178</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>167</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>73</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>191</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3309.1750000000002</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>193</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>194</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>195</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3275,10 +3443,30 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -425,6 +425,12 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
@@ -458,9 +464,6 @@
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -590,7 +593,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:04 PM</t>
+    <t>Friday, 19 September, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2419,7 +2422,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2429,11 +2432,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,11 +2465,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2511,31 +2514,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2544,14 +2547,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,14 +2564,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2577,14 +2580,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,11 +2597,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2617,7 +2620,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2709,14 +2712,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,11 +2729,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2792,14 +2795,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2825,11 +2828,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2858,11 +2861,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2881,7 +2884,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2924,11 +2927,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2947,7 +2950,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2973,14 +2976,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2990,14 +2993,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3105,14 +3108,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3122,49 +3125,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>191</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>168</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>73</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>192</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3309.1750000000002</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3359.1750000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
         <v>194</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
         <v>195</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>196</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3463,10 +3499,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -497,6 +497,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>حمام كريم فاتيكا 450جم</t>
+  </si>
+  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -593,7 +596,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:06 PM</t>
+    <t>Friday, 19 September, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2752,7 +2755,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,11 +2765,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2778,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2811,7 +2814,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2828,14 +2831,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2861,11 +2864,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2877,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2894,11 +2897,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2917,7 +2920,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2927,11 +2930,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2943,7 +2946,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2960,11 +2963,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2983,7 +2986,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2993,11 +2996,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3009,14 +3012,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3026,14 +3029,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3042,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3059,14 +3062,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,14 +3078,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3092,11 +3095,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3108,14 +3111,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3125,11 +3128,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3141,14 +3144,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3158,49 +3161,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>192</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>169</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>73</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>193</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3359.1750000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3439.1750000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>195</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
         <v>196</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>197</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3504,10 +3540,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -536,6 +554,12 @@
     <t>شمع حريمي</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
@@ -584,9 +608,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -596,7 +617,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:15 PM</t>
+    <t>Friday, 19 September, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1567,7 +1588,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1577,14 +1598,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,14 +1614,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,14 +1631,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1626,14 +1647,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1650,7 +1671,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1666,7 +1687,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,14 +1697,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1692,14 +1713,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1758,28 +1779,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1791,20 +1812,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1815,7 +1836,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1831,7 +1852,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1864,7 +1885,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1897,13 +1918,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1930,21 +1951,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1956,31 +1977,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,7 +2142,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2138,11 +2159,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2178,7 +2199,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2194,7 +2215,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2220,7 +2241,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2359,7 +2380,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2376,7 +2397,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2392,7 +2413,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2409,7 +2430,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2425,7 +2446,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,11 +2456,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,11 +2522,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,20 +2571,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2571,10 +2592,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,7 +2604,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2596,18 +2617,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,31 +2637,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,28 +2670,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2682,28 +2703,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2715,28 +2736,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2748,7 +2769,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2761,15 +2782,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2781,28 +2802,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2814,7 +2835,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2827,18 +2848,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,28 +2868,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2880,7 +2901,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2893,18 +2914,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,28 +2934,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2946,28 +2967,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2979,31 +3000,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,28 +3033,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3045,31 +3066,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,28 +3099,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3111,31 +3132,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,28 +3165,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3177,66 +3198,132 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3439.1750000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>195</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>196</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>197</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>181</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>76</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>188</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>175</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>76</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>200</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3859.1750000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>202</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>203</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>204</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3545,10 +3632,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -335,12 +344,6 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>NACTALIA 2 MILK 400 GM</t>
   </si>
   <si>
@@ -617,7 +620,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:21 PM</t>
+    <t>Friday, 19 September, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1555,7 +1558,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1565,14 +1568,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1581,7 +1584,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1598,14 +1601,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1614,14 +1617,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1638,7 +1641,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1647,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1664,14 +1667,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1687,7 +1690,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1697,14 +1700,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1713,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1737,7 +1740,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1746,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1763,14 +1766,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1779,14 +1782,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1796,14 +1799,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1812,28 +1815,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1845,20 +1848,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1869,7 +1872,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1885,7 +1888,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1918,7 +1921,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1951,13 +1954,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1984,21 +1987,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2010,20 +2013,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2050,7 +2053,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2060,14 +2063,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2076,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2093,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2109,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,14 +2129,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2142,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2159,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2241,7 +2244,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2258,11 +2261,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2291,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2307,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2324,14 +2327,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2373,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2390,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2406,7 +2409,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2423,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,11 +2459,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2538,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,11 +2558,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2571,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,11 +2591,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2637,31 +2640,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2670,31 +2673,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,28 +2706,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2743,21 +2746,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2769,28 +2772,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2815,15 +2818,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2835,7 +2838,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2848,15 +2851,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2875,21 +2878,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2901,31 +2904,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,7 +2937,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2947,18 +2950,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2980,15 +2983,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3000,31 +3003,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,31 +3036,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,28 +3069,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3106,21 +3109,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3132,31 +3135,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,31 +3168,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,28 +3201,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3231,28 +3234,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3271,59 +3274,92 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>176</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>79</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>201</v>
       </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3859.1750000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3909.1750000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>203</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
         <v>204</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>205</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3642,10 +3678,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -95,6 +95,21 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -131,219 +146,219 @@
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
+    <t>-2:-1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>50.00</t>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:13</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>NACTALIA 2 MILK 400 GM</t>
   </si>
   <si>
@@ -365,6 +380,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
     <t>OCTOVENT 4MG C.R. 20 TAB</t>
   </si>
   <si>
@@ -407,9 +431,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -620,7 +641,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:23 PM</t>
+    <t>Friday, 19 September, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1410,7 +1431,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1419,14 +1440,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1436,11 +1457,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1452,14 +1473,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1490,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1506,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,11 +1523,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1518,14 +1539,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1535,14 +1556,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1572,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,11 +1589,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,7 +1638,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1634,14 +1655,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1707,7 +1728,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1723,7 +1744,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,14 +1754,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1773,7 +1794,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1806,7 +1827,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,14 +1853,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,28 +1869,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1888,24 +1909,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,11 +1952,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,11 +1985,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1980,28 +2001,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2013,20 +2034,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2053,21 +2074,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2103,7 +2124,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,11 +2216,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,7 +2298,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2294,11 +2315,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,7 +2364,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,11 +2579,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,11 +2645,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2647,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2664,7 +2685,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2680,24 +2701,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,7 +2727,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2719,18 +2740,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,31 +2760,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,28 +2793,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2805,28 +2826,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2838,28 +2859,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2871,7 +2892,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2884,15 +2905,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2904,28 +2925,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2937,7 +2958,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2950,18 +2971,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2977,21 +2998,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3003,7 +3024,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3016,18 +3037,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3057,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,28 +3090,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3102,31 +3123,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,28 +3156,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3168,31 +3189,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,28 +3222,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3234,31 +3255,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,28 +3288,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3300,66 +3321,132 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3909.1750000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>203</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>204</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>205</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>189</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>83</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>196</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>207</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>183</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>83</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>208</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4349.0150000000003</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>210</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>211</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>212</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3683,10 +3770,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -170,13 +170,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
@@ -221,6 +224,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -269,15 +284,24 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -485,9 +509,6 @@
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>53.00</t>
   </si>
   <si>
@@ -641,7 +662,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:27 PM</t>
+    <t>Friday, 19 September, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1629,7 +1650,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,7 +1659,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1655,11 +1676,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1671,7 +1692,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1688,11 +1709,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1704,14 +1725,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,11 +1742,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>32</v>
@@ -1737,14 +1758,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,11 +1775,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1770,14 +1791,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,11 +1808,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1803,14 +1824,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1841,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1857,10 +1878,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1890,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1907,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1902,28 +1923,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1935,31 +1956,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +1989,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2006,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2022,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,11 +2039,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2034,7 +2055,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2047,15 +2068,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2067,28 +2088,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2100,7 +2121,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2113,15 +2134,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2133,31 +2154,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2190,7 +2211,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2216,14 +2237,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2253,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2270,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2286,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,7 +2319,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2315,11 +2336,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,7 +2385,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2381,11 +2402,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,7 +2451,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2447,11 +2468,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,11 +2501,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2567,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,11 +2666,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,11 +2732,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,31 +2781,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,7 +2814,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2806,18 +2827,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,31 +2847,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,28 +2880,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2892,28 +2913,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2925,28 +2946,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2958,7 +2979,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2971,15 +2992,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2991,28 +3012,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3024,7 +3045,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3037,18 +3058,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3064,21 +3085,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3090,7 +3111,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3103,18 +3124,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,31 +3144,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,28 +3177,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3189,31 +3210,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,28 +3243,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3255,31 +3276,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,28 +3309,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3321,31 +3342,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3354,28 +3375,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3387,66 +3408,132 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4349.0150000000003</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>210</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>211</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>212</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>213</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>196</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>88</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>203</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>190</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>88</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>215</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4458.2250000000004</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>217</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>218</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>219</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3780,10 +3867,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>BILASTOMED 20 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -329,6 +338,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -662,7 +680,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:39 PM</t>
+    <t>Friday, 19 September, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,7 +1420,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1419,7 +1437,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1435,7 +1453,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1445,14 +1463,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1461,14 +1479,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1478,14 +1496,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1494,14 +1512,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1534,7 +1552,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1544,14 +1562,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1560,14 +1578,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1577,14 +1595,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1643,14 +1661,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1716,7 +1734,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1732,7 +1750,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1775,14 +1793,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1808,14 +1826,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1864,7 +1882,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1930,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1940,14 +1958,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1956,28 +1974,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1989,28 +2007,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2022,14 +2040,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2043,10 +2061,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2055,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,11 +2090,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2095,7 +2113,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2128,13 +2146,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2161,21 +2179,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2220,31 +2238,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2270,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2303,14 +2321,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2343,7 +2361,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2385,7 +2403,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2402,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2442,7 +2460,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2491,7 +2509,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2517,7 +2535,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2534,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2550,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2567,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2583,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2600,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2616,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2633,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2656,7 +2674,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2673,7 +2691,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2689,7 +2707,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2706,7 +2724,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2722,7 +2740,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,11 +2750,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2748,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2765,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2781,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,11 +2816,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2821,7 +2839,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2838,7 +2856,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2854,13 +2872,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2868,10 +2886,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2880,7 +2898,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2893,18 +2911,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2913,31 +2931,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2946,28 +2964,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2979,28 +2997,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3012,28 +3030,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3045,7 +3063,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3058,15 +3076,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3078,28 +3096,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3111,7 +3129,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3124,18 +3142,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3144,28 +3162,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3177,7 +3195,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3190,18 +3208,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3210,31 +3228,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3250,13 +3268,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3283,24 +3301,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3309,28 +3327,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3342,31 +3360,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3382,13 +3400,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3415,24 +3433,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3441,28 +3459,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3474,66 +3492,132 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4458.2250000000004</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>217</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>218</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>219</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>202</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>91</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>209</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>220</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>196</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>91</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>221</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4530.4949999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>223</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>224</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>225</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3877,10 +3961,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -155,324 +155,318 @@
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
-    <t>-2:-1</t>
+    <t>0:4</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>200.0000</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OSSOPAN 800MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:13</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>OSSOPAN 800MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -680,7 +674,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:54 PM</t>
+    <t>Friday, 19 September, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1635,7 +1629,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1644,14 +1638,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1665,7 +1659,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1677,14 +1671,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1694,14 +1688,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1710,7 +1704,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1727,11 +1721,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1743,7 +1737,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1760,11 +1754,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1776,14 +1770,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1793,11 +1787,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>35</v>
@@ -1809,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1826,11 +1820,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1842,14 +1836,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1859,11 +1853,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1875,7 +1869,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1892,11 +1886,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1908,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1925,14 +1919,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1941,14 +1935,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1958,14 +1952,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1974,7 +1968,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1991,11 +1985,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2007,7 +2001,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2020,15 +2014,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2040,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,11 +2051,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2073,7 +2067,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2090,11 +2084,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2106,7 +2100,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2123,11 +2117,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2139,7 +2133,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2156,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2172,7 +2166,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2185,15 +2179,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2205,7 +2199,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2222,11 +2216,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2238,28 +2232,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2271,7 +2265,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2288,11 +2282,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2304,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2321,11 +2315,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2337,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,11 +2348,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2370,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2391,7 +2385,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2403,7 +2397,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2420,11 +2414,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2436,14 +2430,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,11 +2447,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2469,7 +2463,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2486,11 +2480,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2502,7 +2496,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2519,11 +2513,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2535,7 +2529,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2552,11 +2546,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2568,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,11 +2579,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2601,7 +2595,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2618,11 +2612,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2634,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2667,7 +2661,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2684,11 +2678,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -2700,7 +2694,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2717,11 +2711,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2733,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,11 +2744,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2766,7 +2760,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2783,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2799,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2820,7 +2814,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2832,7 +2826,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2849,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2865,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,11 +2876,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2898,7 +2892,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2915,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,31 +2925,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>30</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,7 +2958,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2977,15 +2971,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2997,28 +2991,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3030,28 +3024,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3063,7 +3057,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3076,7 +3070,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3084,7 +3078,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3096,7 +3090,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3109,15 +3103,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3129,7 +3123,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3142,7 +3136,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3162,28 +3156,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3195,7 +3189,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3208,18 +3202,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,7 +3222,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3241,15 +3235,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3261,7 +3255,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3274,15 +3268,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3294,20 +3288,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3315,10 +3309,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,28 +3321,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3360,20 +3354,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3393,7 +3387,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3406,15 +3400,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3426,31 +3420,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,28 +3453,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3492,28 +3486,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3525,28 +3519,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3558,28 +3552,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3587,13 +3581,13 @@
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="P76" s="13">
-        <v>4530.4949999999999</v>
+        <v>4380.4949999999999</v>
       </c>
       <c r="Q76" s="13"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c t="s" r="A77" s="14">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3601,13 +3595,13 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c t="s" r="G77" s="15">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
       <c t="s" r="K77" s="17">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 8:56 PM</t>
+    <t>Friday, 19 September, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -461,6 +461,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -674,7 +686,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:00 PM</t>
+    <t>Friday, 19 September, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,7 +2706,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,14 +2822,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2855,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2859,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,28 +2937,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>58</v>
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3020,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3053,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3057,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,11 +3086,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3090,7 +3102,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3107,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3123,7 +3135,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3140,11 +3152,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3156,14 +3168,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,11 +3185,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3189,14 +3201,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3218,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3239,14 +3251,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,7 +3267,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3272,11 +3284,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3288,14 +3300,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3317,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3350,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,7 +3366,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3371,11 +3383,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3387,14 +3399,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,11 +3416,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,14 +3465,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,14 +3482,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,14 +3498,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,11 +3548,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,49 +3581,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4380.4949999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>221</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>222</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>198</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>89</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>223</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4422.4949999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>225</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>226</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>227</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3965,10 +4010,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -677,6 +677,18 @@
     <t>مبرد قدم</t>
   </si>
   <si>
+    <t>مجموعه لونا 3 قطع</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -686,7 +698,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:01 PM</t>
+    <t>Friday, 19 September, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3604,7 +3616,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3614,49 +3626,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4422.4949999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>225</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>226</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>198</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>89</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>227</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4572.4949999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>229</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>230</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>231</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4015,10 +4060,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:07 PM</t>
+    <t>Friday, 19 September, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -386,6 +395,15 @@
     <t>27.0600</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -476,9 +494,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -593,9 +608,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -698,7 +710,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:08 PM</t>
+    <t>Friday, 19 September, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1785,7 +1797,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1801,7 +1813,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1823,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1933,7 +1945,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,11 +1988,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>48</v>
@@ -1999,7 +2011,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,28 +2037,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2058,28 +2070,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2112,10 +2124,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,11 +2153,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2164,7 +2176,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2197,13 +2209,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2230,13 +2242,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2247,7 +2259,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2263,24 +2275,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2289,20 +2301,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2329,7 +2341,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,11 +2384,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,11 +2450,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,7 +2499,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2504,11 +2516,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2544,7 +2556,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2593,7 +2605,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,7 +2631,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2636,11 +2648,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,11 +2879,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2890,7 +2902,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2907,7 +2919,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2923,7 +2935,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,11 +2945,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,31 +2994,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3028,7 +3040,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3039,7 +3051,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3055,24 +3067,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,28 +3093,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3114,28 +3126,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3147,28 +3159,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3180,7 +3192,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3193,15 +3205,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3213,28 +3225,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3246,7 +3258,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3259,18 +3271,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,28 +3291,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3325,18 +3337,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3352,24 +3364,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,28 +3390,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3411,31 +3423,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3451,13 +3463,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3484,24 +3496,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,28 +3522,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3543,31 +3555,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,28 +3588,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3609,28 +3621,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3642,66 +3654,132 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>226</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>227</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>92</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>228</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4572.4949999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>230</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>202</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>92</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>231</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4636.4949999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>233</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>234</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>235</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4065,10 +4143,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -587,6 +587,15 @@
     <t>33:0</t>
   </si>
   <si>
+    <t>بودره قدم</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -692,9 +701,6 @@
     <t>مجموعه لونا 3 قطع</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -710,7 +716,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:11 PM</t>
+    <t>Friday, 19 September, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3199,7 +3205,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3209,11 +3215,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3225,7 +3231,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3242,11 +3248,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3275,11 +3281,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3308,11 +3314,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3341,14 +3347,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3357,7 +3363,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3374,14 +3380,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3390,7 +3396,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3407,11 +3413,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3430,7 +3436,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3440,14 +3446,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3463,7 +3469,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3473,14 +3479,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3506,11 +3512,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3539,11 +3545,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3562,7 +3568,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3579,7 +3585,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3595,7 +3601,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3612,7 +3618,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3628,7 +3634,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3638,11 +3644,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3654,14 +3660,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3671,11 +3677,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3704,11 +3710,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3720,14 +3726,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3737,49 +3743,82 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>232</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4636.4949999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>205</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>92</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>233</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4656.4949999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
         <v>235</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>236</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>237</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4153,10 +4192,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -716,7 +716,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:16 PM</t>
+    <t>Friday, 19 September, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -308,6 +308,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -635,12 +644,6 @@
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -716,7 +719,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:17 PM</t>
+    <t>Friday, 19 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2149,7 +2152,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2163,7 +2166,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2192,11 +2195,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2215,7 +2218,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2248,13 +2251,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2281,13 +2284,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2298,7 +2301,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2314,24 +2317,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,20 +2343,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2380,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,14 +2393,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2406,14 +2409,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2423,11 +2426,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2463,7 +2466,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2479,7 +2482,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,11 +2492,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2505,14 +2508,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2545,7 +2548,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,14 +2558,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2571,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2595,7 +2598,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2677,7 +2680,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2727,7 +2730,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2743,7 +2746,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2769,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2802,14 +2805,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2822,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2859,7 +2862,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2875,7 +2878,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2908,7 +2911,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2925,7 +2928,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2941,7 +2944,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,11 +2987,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3007,7 +3010,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3040,7 +3043,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3057,7 +3060,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3073,13 +3076,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3087,7 +3090,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>61</v>
@@ -3099,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3139,7 +3142,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,11 +3152,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3165,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,11 +3185,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3198,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,11 +3218,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3238,7 +3241,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,11 +3251,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3264,7 +3267,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3281,11 +3284,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3314,11 +3317,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3330,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,11 +3350,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3363,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3396,7 +3399,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3413,14 +3416,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,7 +3432,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3446,11 +3449,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3469,7 +3472,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3482,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,14 +3498,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3545,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3568,7 +3571,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,11 +3581,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3594,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,14 +3614,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3630,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3660,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3680,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3693,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,11 +3713,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3733,7 +3736,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,11 +3746,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3759,14 +3762,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,49 +3779,82 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>208</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>92</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>234</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4656.4949999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4846.4949999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
         <v>236</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
         <v>237</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>238</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4197,10 +4233,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -608,6 +617,12 @@
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -671,33 +686,33 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ماء اكسجين 20</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ماء اكسجين 20</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>32:0</t>
-  </si>
-  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -710,6 +725,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -719,7 +743,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:20 PM</t>
+    <t>Friday, 19 September, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1846,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1839,7 +1863,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1855,7 +1879,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1865,14 +1889,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1881,14 +1905,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1898,14 +1922,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1914,14 +1938,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1931,14 +1955,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1987,7 +2011,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1997,14 +2021,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2013,14 +2037,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2030,11 +2054,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>48</v>
@@ -2053,7 +2077,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2063,14 +2087,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2079,28 +2103,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2112,28 +2136,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2145,14 +2169,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2169,7 +2193,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2185,7 +2209,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2199,7 +2223,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2211,14 +2235,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,11 +2252,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2251,7 +2275,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2284,13 +2308,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2317,13 +2341,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2334,7 +2358,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2350,24 +2374,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2376,20 +2400,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2416,7 +2440,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,14 +2450,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,14 +2466,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,11 +2483,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2475,14 +2499,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2499,7 +2523,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2515,7 +2539,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,11 +2549,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2541,14 +2565,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,11 +2582,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2581,7 +2605,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,14 +2615,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2607,14 +2631,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2631,7 +2655,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2713,7 +2737,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2763,7 +2787,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2779,7 +2803,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,11 +2813,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2805,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2862,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2879,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2895,7 +2919,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2911,7 +2935,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2944,7 +2968,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2961,7 +2985,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2977,7 +3001,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +3011,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,11 +3044,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3043,7 +3067,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3076,7 +3100,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3093,7 +3117,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3109,13 +3133,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3123,7 +3147,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>61</v>
@@ -3135,31 +3159,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3175,21 +3199,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3201,28 +3225,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3234,28 +3258,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3274,21 +3298,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3300,7 +3324,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3313,15 +3337,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3340,21 +3364,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3366,28 +3390,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3399,7 +3423,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3412,18 +3436,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,28 +3456,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3478,18 +3502,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,28 +3522,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>61</v>
@@ -3531,28 +3555,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3564,31 +3588,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,28 +3621,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3630,31 +3654,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,31 +3687,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,31 +3720,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,28 +3753,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3762,28 +3786,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3795,66 +3819,165 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>235</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4846.4949999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>199</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>95</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>236</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>238</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>239</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>95</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>92</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>241</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>213</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>95</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>242</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>5096.4949999999999</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>244</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>245</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>246</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4238,10 +4361,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -743,7 +743,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:31 PM</t>
+    <t>Friday, 19 September, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -743,7 +743,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:32 PM</t>
+    <t>Friday, 19 September, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -554,6 +563,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>81.1800</t>
+  </si>
+  <si>
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
@@ -743,7 +761,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 9:33 PM</t>
+    <t>Friday, 19 September, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,7 +2029,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2044,7 +2062,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2087,11 +2105,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>48</v>
@@ -2110,7 +2128,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2136,28 +2154,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2169,28 +2187,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2226,7 +2244,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2242,7 +2260,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2256,7 +2274,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,11 +2303,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2308,7 +2326,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2341,13 +2359,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2374,13 +2392,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2391,7 +2409,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2407,24 +2425,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2433,20 +2451,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2473,7 +2491,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2516,11 +2534,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2556,7 +2574,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2572,7 +2590,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2582,11 +2600,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2615,11 +2633,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2638,7 +2656,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2688,7 +2706,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2770,7 +2788,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2820,7 +2838,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2836,7 +2854,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2952,7 +2970,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2968,7 +2986,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3001,7 +3019,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3018,7 +3036,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3034,7 +3052,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3100,7 +3118,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3117,7 +3135,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3133,7 +3151,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3150,7 +3168,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3166,13 +3184,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3180,10 +3198,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3192,7 +3210,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3205,18 +3223,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3225,31 +3243,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3258,28 +3276,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3291,28 +3309,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3324,28 +3342,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3357,28 +3375,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3390,7 +3408,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3403,15 +3421,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3423,28 +3441,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3456,28 +3474,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3489,7 +3507,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3502,18 +3520,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3529,24 +3547,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,7 +3573,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3568,18 +3586,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3588,28 +3606,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>61</v>
@@ -3621,28 +3639,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3661,24 +3679,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3687,31 +3705,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3720,31 +3738,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,31 +3771,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3793,24 +3811,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3826,21 +3844,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3852,28 +3870,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3885,28 +3903,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3925,13 +3943,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3946,38 +3964,104 @@
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5096.4949999999999</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>244</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
         <v>245</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>98</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>95</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>246</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>247</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>219</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>98</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>248</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5225.1949999999997</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>250</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>251</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>252</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4376,10 +4460,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -377,6 +377,15 @@
     <t>39.1050</t>
   </si>
   <si>
+    <t>IVY ACETYL CYSTEINE SYRUP</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -467,6 +476,12 @@
     <t>274.0000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>258.0000</t>
+  </si>
+  <si>
     <t>OCTOVENT 4MG C.R. 20 TAB</t>
   </si>
   <si>
@@ -687,12 +702,6 @@
   </si>
   <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
   </si>
   <si>
     <t>فيانسيه كريم 2*1 125 مل</t>
@@ -2458,7 +2467,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,11 +2477,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2484,20 +2493,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2524,7 +2533,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,11 +2576,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2607,7 +2616,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2623,7 +2632,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2689,7 +2698,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2699,14 +2708,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2739,7 +2748,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2788,7 +2797,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2847,7 +2856,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2953,7 +2962,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3118,7 +3127,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3135,7 +3144,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3151,7 +3160,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,31 +3252,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3300,7 +3309,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3316,7 +3325,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,11 +3401,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3415,7 +3424,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3474,7 +3483,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3491,11 +3500,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3514,7 +3523,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,11 +3533,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3540,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3573,7 +3582,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3656,14 +3665,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3689,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>61</v>
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,11 +3731,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3738,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3920,7 +3929,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,49 +4028,115 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>248</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>98</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>95</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5225.1949999999997</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>250</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>224</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>98</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>251</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>252</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5558.1949999999997</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>253</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>254</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>255</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4470,10 +4545,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:07 PM</t>
+    <t>Friday, 19 September, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>33.1650</t>
   </si>
   <si>
+    <t>BISOCARD PLUS 5/12.5MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -299,6 +308,15 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>FLACORT 6MG 20 TABS.</t>
   </si>
   <si>
@@ -698,9 +716,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
@@ -770,7 +785,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:11 PM</t>
+    <t>Friday, 19 September, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,7 +1558,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1576,7 +1591,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1586,14 +1601,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1602,14 +1617,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1619,14 +1634,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1635,14 +1650,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1675,7 +1690,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1685,14 +1700,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1718,11 +1733,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1751,7 +1766,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1784,14 +1799,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1850,14 +1865,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1873,7 +1888,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1890,7 +1905,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1906,7 +1921,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1923,7 +1938,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1939,7 +1954,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1982,14 +1997,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1998,14 +2013,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,14 +2063,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2071,7 +2086,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2081,14 +2096,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2104,7 +2119,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2170,7 +2185,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2196,31 +2211,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,11 +2261,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2262,31 +2277,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2316,10 +2331,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2328,7 +2343,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2345,11 +2360,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2407,7 +2422,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2434,7 +2449,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2451,7 +2466,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2473,7 +2488,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2500,24 +2515,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,7 +2541,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2539,15 +2554,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2559,31 +2574,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,14 +2607,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,11 +2723,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2757,7 +2772,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2774,11 +2789,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2823,7 +2838,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2840,11 +2855,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2888,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2896,7 +2911,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2921,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2922,7 +2937,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2939,11 +2954,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3109,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3111,7 +3126,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3127,7 +3142,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3144,7 +3159,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3160,7 +3175,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,11 +3251,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3259,7 +3274,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3276,7 +3291,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3292,7 +3307,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3309,7 +3324,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3325,13 +3340,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3339,10 +3354,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3351,7 +3366,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3364,18 +3379,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,31 +3399,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,28 +3432,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3450,28 +3465,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3483,28 +3498,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3516,28 +3531,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3549,7 +3564,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3562,15 +3577,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3582,28 +3597,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3615,28 +3630,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3648,7 +3663,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3661,18 +3676,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3688,24 +3703,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,7 +3729,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3727,18 +3742,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,31 +3762,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,28 +3795,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3813,31 +3828,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,31 +3861,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,31 +3894,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3919,13 +3934,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3933,10 +3948,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,31 +3960,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,28 +3993,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4011,28 +4026,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4044,28 +4059,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4077,66 +4092,132 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>252</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5558.1949999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>253</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>104</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>98</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>254</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>255</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>230</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>104</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>256</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5721.1949999999997</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>258</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>259</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>260</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4555,10 +4636,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:22 PM</t>
+    <t>Friday, 19 September, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ATOR 20MG 10 F.C. TAB.</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -671,7 +677,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>40:0</t>
+    <t>39:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -707,6 +713,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -728,6 +737,9 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -770,10 +782,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
@@ -785,7 +797,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:26 PM</t>
+    <t>Friday, 19 September, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,7 +1504,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1502,14 +1514,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1551,7 +1563,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1568,14 +1580,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1601,11 +1613,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1641,7 +1653,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1690,7 +1702,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1723,7 +1735,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1733,14 +1745,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1766,11 +1778,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1799,7 +1811,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1832,14 +1844,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1865,14 +1877,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1898,14 +1910,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1921,7 +1933,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1938,7 +1950,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1954,7 +1966,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1971,7 +1983,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1987,7 +1999,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1997,14 +2009,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2030,14 +2042,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2096,14 +2108,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2232,10 +2244,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2244,7 +2256,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2277,28 +2289,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2310,28 +2322,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2393,11 +2405,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2416,7 +2428,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2430,7 +2442,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2459,11 +2471,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2475,28 +2487,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2508,31 +2520,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2541,31 +2553,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2574,28 +2586,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2607,28 +2619,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2779,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2789,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2911,7 +2923,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,7 +2949,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3053,11 +3065,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3135,7 +3147,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3399,31 +3411,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3439,13 +3451,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3453,10 +3465,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3465,28 +3477,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3498,28 +3510,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3544,15 +3556,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3564,28 +3576,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3597,28 +3609,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3637,24 +3649,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3663,7 +3675,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3676,15 +3688,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3696,28 +3708,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3736,13 +3748,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3750,10 +3762,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3762,7 +3774,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3775,18 +3787,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>64</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,7 +3807,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3808,18 +3820,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,31 +3840,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,31 +3873,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3894,28 +3906,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3927,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3960,31 +3972,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3993,31 +4005,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,28 +4038,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4059,28 +4071,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4092,24 +4104,24 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4125,28 +4137,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4158,66 +4170,99 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5721.1949999999997</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>258</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>259</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>232</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>106</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>260</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5838.1949999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>262</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>263</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>264</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4646,10 +4691,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -80,448 +80,484 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>123.6900</t>
+  </si>
+  <si>
+    <t>ATOR 20MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>BILASTOMED 20 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
+    <t>BISOCARD PLUS 5/12.5MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>IVY ACETYL CYSTEINE SYRUP</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>258.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OSSOPAN 800MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>ATOR 20MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>BILASTOMED 20 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>33.1650</t>
-  </si>
-  <si>
-    <t>BISOCARD PLUS 5/12.5MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CARBAMIDE 10% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
-  </si>
-  <si>
-    <t>740.00</t>
-  </si>
-  <si>
-    <t>148.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
-  </si>
-  <si>
-    <t>470.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:8</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>IVY ACETYL CYSTEINE SYRUP</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:13</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>258.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>OSSOPAN 800MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -560,6 +596,9 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -581,12 +620,12 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>21.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -629,12 +668,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -707,9 +749,6 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -785,9 +824,6 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -797,7 +833,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:32 PM</t>
+    <t>Friday, 19 September, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1504,7 +1540,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1514,14 +1550,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1530,7 +1566,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1547,11 +1583,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1563,14 +1599,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1580,14 +1616,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1596,7 +1632,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1613,14 +1649,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1629,14 +1665,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1646,11 +1682,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1662,14 +1698,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1679,14 +1715,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1695,14 +1731,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1712,14 +1748,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1728,7 +1764,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1745,11 +1781,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1761,14 +1797,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1778,14 +1814,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1794,14 +1830,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1811,11 +1847,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1827,14 +1863,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1844,11 +1880,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1860,14 +1896,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1877,14 +1913,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1893,14 +1929,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1910,14 +1946,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1926,14 +1962,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1943,14 +1979,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1959,14 +1995,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,14 +2012,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1992,14 +2028,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2009,14 +2045,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2025,14 +2061,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2042,14 +2078,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,14 +2111,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2091,14 +2127,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2144,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2124,14 +2160,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,14 +2177,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,14 +2193,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2223,14 +2259,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,14 +2292,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2280,7 +2316,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2296,7 +2332,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2342,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,31 +2358,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2391,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,11 +2408,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2388,31 +2424,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,14 +2457,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2442,10 +2478,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,7 +2490,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2471,11 +2507,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2487,14 +2523,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,11 +2540,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2533,7 +2569,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2560,7 +2596,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2577,7 +2613,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2599,7 +2635,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2626,24 +2662,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2652,7 +2688,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2665,15 +2701,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2685,31 +2721,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2718,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,14 +2771,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2751,14 +2787,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2804,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2784,14 +2820,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2837,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,11 +2870,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2850,14 +2886,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2903,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2883,7 +2919,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2900,11 +2936,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2916,14 +2952,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,14 +2969,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,14 +2985,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2973,7 +3009,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3022,7 +3058,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3068,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3048,7 +3084,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3065,11 +3101,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3081,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,11 +3134,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3114,31 +3150,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3154,7 +3190,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3200,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,14 +3216,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,11 +3233,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3213,14 +3249,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3266,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3246,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,14 +3315,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3312,7 +3348,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3329,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,14 +3381,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,14 +3398,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3447,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,31 +3480,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,28 +3513,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3510,28 +3546,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3543,28 +3579,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3576,31 +3612,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,31 +3645,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,31 +3678,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,28 +3711,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3708,28 +3744,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3741,28 +3777,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3774,7 +3810,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3787,18 +3823,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3807,20 +3843,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3828,10 +3864,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,7 +3876,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3853,15 +3889,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3873,31 +3909,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,28 +3942,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,31 +3975,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,7 +4008,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3985,18 +4021,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,31 +4041,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,31 +4074,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,28 +4107,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4111,21 +4147,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4144,13 +4180,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4161,7 +4197,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4177,24 +4213,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4210,13 +4246,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4231,38 +4267,203 @@
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5838.1949999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>262</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>263</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>112</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>254</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>264</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>250</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>112</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>254</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>266</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>232</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>112</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>267</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>270</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>112</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>106</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>220</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>112</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>272</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>6447.8850000000002</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>274</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>275</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>276</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4696,10 +4897,35 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -401,6 +401,24 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -530,6 +548,15 @@
     <t>258.0000</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>OCTOVENT 4MG C.R. 20 TAB</t>
   </si>
   <si>
@@ -674,6 +701,12 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -833,7 +866,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:34 PM</t>
+    <t>Friday, 19 September, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2629,13 +2662,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2662,7 +2695,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2728,24 +2761,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2754,7 +2787,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2767,15 +2800,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2787,31 +2820,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2886,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2903,14 +2936,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2936,11 +2969,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2969,11 +3002,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3009,7 +3042,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3035,11 +3068,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3051,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3084,7 +3117,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3101,11 +3134,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3117,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3157,24 +3190,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3183,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,14 +3233,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3216,7 +3249,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3233,11 +3266,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3249,28 +3282,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3282,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3322,7 +3355,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3339,7 +3372,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3355,7 +3388,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3365,11 +3398,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3398,14 +3431,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3421,7 +3454,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3438,7 +3471,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3454,7 +3487,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3464,11 +3497,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3480,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3497,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3513,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,14 +3563,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3546,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3563,11 +3596,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3586,7 +3619,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3629,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3645,31 +3678,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3678,28 +3711,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3711,31 +3744,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3744,31 +3777,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3777,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,14 +3827,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3810,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,11 +3992,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3975,14 +4008,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,14 +4025,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>220</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4008,7 +4041,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4025,14 +4058,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,7 +4074,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4058,11 +4091,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4074,14 +4107,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,14 +4157,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,14 +4173,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,14 +4190,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4173,7 +4206,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4190,14 +4223,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,11 +4256,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>69</v>
@@ -4239,14 +4272,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4256,11 +4289,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4272,14 +4305,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,11 +4322,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4305,14 +4338,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,14 +4355,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,14 +4371,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,14 +4388,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,14 +4421,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,14 +4437,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4421,49 +4454,181 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>6447.8850000000002</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>274</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>276</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>261</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>112</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>265</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>275</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>276</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>277</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>243</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>112</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>278</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>281</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>112</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>106</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>282</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>229</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>112</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>283</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6617.6450000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>285</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>286</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>287</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4922,10 +5087,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -707,6 +716,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -779,9 +800,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -866,7 +884,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:48 PM</t>
+    <t>Friday, 19 September, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2134,7 +2152,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2214,7 +2232,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2299,7 +2317,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2332,7 +2350,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2375,11 +2393,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>56</v>
@@ -2398,7 +2416,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2457,28 +2475,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2490,28 +2508,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2547,7 +2565,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2563,7 +2581,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2577,7 +2595,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2629,7 +2647,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2712,7 +2730,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2728,13 +2746,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2745,7 +2763,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2761,13 +2779,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2778,7 +2796,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2794,13 +2812,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2811,7 +2829,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2827,21 +2845,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2853,20 +2871,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2893,7 +2911,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,11 +2954,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2976,7 +2994,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2992,7 +3010,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3141,7 +3159,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3157,7 +3175,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3223,7 +3241,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3240,7 +3258,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3289,21 +3307,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3315,31 +3333,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3372,7 +3390,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3388,7 +3406,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,11 +3416,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,7 +3482,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3504,7 +3522,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3520,7 +3538,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3553,7 +3571,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3586,7 +3604,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3652,7 +3670,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3669,7 +3687,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3685,7 +3703,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3718,7 +3736,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,11 +3746,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3810,31 +3828,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3843,7 +3861,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3856,18 +3874,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3876,31 +3894,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3909,28 +3927,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3942,28 +3960,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3975,28 +3993,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4008,31 +4026,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4041,7 +4059,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4054,15 +4072,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4074,31 +4092,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,28 +4125,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4140,7 +4158,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4153,18 +4171,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,31 +4191,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4206,7 +4224,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4219,18 +4237,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,31 +4257,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4272,28 +4290,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4305,31 +4323,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,31 +4356,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,31 +4389,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4411,13 +4429,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4428,7 +4446,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4444,24 +4462,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4477,21 +4495,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4503,28 +4521,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4536,31 +4554,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4569,66 +4587,132 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6617.6450000000004</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>285</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>286</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
         <v>287</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>115</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>109</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>288</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>232</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>115</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>289</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>6670.4750000000004</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>291</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>292</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>293</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5107,10 +5191,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -320,6 +320,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -356,9 +362,6 @@
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>195.00</t>
   </si>
   <si>
@@ -716,6 +719,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -884,7 +893,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 10:53 PM</t>
+    <t>Friday, 19 September, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2383,24 +2392,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,11 +2435,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>56</v>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2463,10 +2472,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,7 +2484,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,28 +2517,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2541,28 +2550,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,11 +2666,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2706,7 +2715,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2723,11 +2732,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2739,7 +2748,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2772,31 +2781,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2805,31 +2814,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2838,31 +2847,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,28 +2880,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2904,28 +2913,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,11 +2996,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3086,11 +3095,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3102,7 +3111,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3300,7 +3309,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3317,11 +3326,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3333,28 +3342,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3366,31 +3375,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,11 +3458,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,11 +3524,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>44</v>
@@ -3531,7 +3540,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,11 +3755,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,14 +3821,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3894,31 +3903,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,7 +3936,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3940,18 +3949,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,31 +3969,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,28 +4002,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4033,21 +4042,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4059,28 +4068,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4092,31 +4101,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4138,15 +4147,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4158,31 +4167,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4191,28 +4200,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4237,18 +4246,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4257,31 +4266,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,7 +4299,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4303,18 +4312,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4330,24 +4339,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>69</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4363,21 +4372,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4396,24 +4405,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,31 +4431,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4455,31 +4464,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4488,31 +4497,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4521,31 +4530,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,24 +4563,24 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4587,28 +4596,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4620,31 +4629,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,66 +4662,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>289</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>290</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>6670.4750000000004</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>104</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>111</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>291</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>233</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>104</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
         <v>292</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>293</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6862.4750000000004</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>294</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>295</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>296</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5201,10 +5276,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -260,13 +260,16 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DIGENORM SYRUP 120 ML</t>
@@ -335,9 +338,6 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -461,9 +461,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -728,13 +722,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>XORIN 1GM VIAL</t>
@@ -809,6 +803,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -893,7 +890,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:09 PM</t>
+    <t>Friday, 19 September, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2211,7 +2208,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2220,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2237,7 +2234,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2253,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,11 +2267,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2286,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2303,11 +2300,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2319,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2340,7 +2337,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>56</v>
@@ -2352,7 +2349,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2369,11 +2366,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2385,7 +2382,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2398,7 +2395,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2418,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,11 +2432,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>56</v>
@@ -2534,11 +2531,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2563,7 +2560,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2827,7 +2824,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2893,7 +2890,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2920,21 +2917,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2946,7 +2943,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2963,11 +2960,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2979,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2996,11 +2993,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3012,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3029,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3045,7 +3042,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3062,11 +3059,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3078,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3111,7 +3108,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3128,11 +3125,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3144,7 +3141,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3165,7 +3162,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3177,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,11 +3191,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3210,7 +3207,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3227,11 +3224,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3243,7 +3240,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3264,10 +3261,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3276,7 +3273,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3293,11 +3290,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3309,7 +3306,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3326,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3342,7 +3339,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3359,11 +3356,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3375,28 +3372,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3408,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,11 +3422,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3441,7 +3438,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3458,11 +3455,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3474,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,11 +3488,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3507,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3528,7 +3525,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>44</v>
@@ -3540,7 +3537,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3557,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>44</v>
@@ -3573,7 +3570,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3590,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3606,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,11 +3620,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>69</v>
@@ -3639,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3656,11 +3653,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3672,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3705,7 +3702,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3722,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>44</v>
@@ -3738,7 +3735,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3755,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3771,7 +3768,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3788,11 +3785,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3804,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3837,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3858,7 +3855,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3870,7 +3867,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3887,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3903,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,7 +3933,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3953,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>69</v>
@@ -3969,24 +3966,24 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4002,7 +3999,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4015,15 +4012,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4035,7 +4032,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4048,7 +4045,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4068,28 +4065,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4101,28 +4098,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4134,7 +4131,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4147,7 +4144,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4167,24 +4164,24 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4200,7 +4197,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4213,15 +4210,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4233,7 +4230,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4246,7 +4243,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4266,24 +4263,24 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4299,7 +4296,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4312,18 +4309,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,7 +4329,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4345,18 +4342,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,7 +4362,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4378,7 +4375,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4398,20 +4395,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4431,20 +4428,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4464,20 +4461,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4497,7 +4494,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4510,18 +4507,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,28 +4527,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>69</v>
@@ -4563,28 +4560,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4596,28 +4593,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4629,28 +4626,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4662,28 +4659,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4695,20 +4692,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4716,7 +4713,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>69</v>
@@ -4728,28 +4725,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4757,13 +4754,13 @@
     </row>
     <row r="105" ht="24.75" customHeight="1">
       <c r="P105" s="13">
-        <v>6862.4750000000004</v>
+        <v>6893.1850000000004</v>
       </c>
       <c r="Q105" s="13"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c t="s" r="A106" s="14">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4771,13 +4768,13 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c t="s" r="G106" s="15">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="16"/>
       <c t="s" r="K106" s="17">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -260,279 +260,288 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>IVY ACETYL CYSTEINE SYRUP</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:8</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
-  </si>
-  <si>
-    <t>49.90</t>
-  </si>
-  <si>
-    <t>49.9000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>IVY ACETYL CYSTEINE SYRUP</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:13</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -596,9 +605,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -722,13 +728,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>XORIN 1GM VIAL</t>
@@ -764,9 +770,6 @@
     <t>بودره قدم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -803,15 +806,12 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>22.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -890,7 +890,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:11 PM</t>
+    <t>Friday, 19 September, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2208,7 +2208,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2234,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,11 +2267,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2316,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2349,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,31 +2382,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2415,31 +2415,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>56</v>
@@ -2481,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2531,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2554,21 +2554,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2580,28 +2580,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2613,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,11 +2663,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2679,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,11 +2696,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2712,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,11 +2729,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2762,11 +2762,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2795,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,31 +2811,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,31 +2844,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,31 +2877,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2910,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,11 +2927,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2943,28 +2943,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3009,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3042,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3075,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3092,11 +3092,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3115,7 +3115,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,11 +3125,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3181,7 +3181,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3231,7 +3231,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3247,7 +3247,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,7 +3313,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3330,7 +3330,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3379,21 +3379,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3405,31 +3405,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,11 +3488,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3504,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3544,7 +3544,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>44</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3587,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3657,10 +3657,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3709,7 +3709,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,11 +3785,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3801,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,11 +3818,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3841,7 +3841,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3874,7 +3874,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3907,7 +3907,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>69</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3973,21 +3973,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>69</v>
@@ -4006,7 +4006,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4020,10 +4020,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,11 +4049,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4065,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4115,11 +4115,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4131,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,11 +4148,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4171,7 +4171,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4247,11 +4247,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4270,7 +4270,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4296,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4346,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4379,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4445,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,11 +4478,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4494,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>69</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,14 +4577,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,11 +4610,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4626,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4659,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,11 +4676,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4692,14 +4692,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,14 +4709,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,14 +4725,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,49 +4742,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>290</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>233</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>105</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>291</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>292</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6893.1850000000004</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6992.8950000000004</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>293</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
         <v>294</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
         <v>295</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5283,10 +5316,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 11:26 PM</t>
+    <t>Friday, 19 September, 2025 11:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-19_00-00.xlsx
+++ b/DaySale_2025-09-19_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 12:06 AM</t>
+    <t>Saturday, 20 September, 2025 12:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
